--- a/assignment2.xlsx
+++ b/assignment2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F3IN\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Database Essentials\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3962C3-5E1E-4E17-A3CD-507547323BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0D22C0-D4EF-4105-B100-389E1439DAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>1</v>
